--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc204_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc204_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -773,10 +797,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -820,28 +844,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="3">
+      <c r="A24" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B24" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="3">
+      <c r="C24" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="3">
+      <c r="D24" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="3">
+      <c r="F24" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="3">
+      <c r="G24" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="3">
+      <c r="H24" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -866,28 +890,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="3">
+      <c r="B26" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="3">
+      <c r="C26" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="3">
+      <c r="D26" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="3">
+      <c r="E26" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="3">
+      <c r="F26" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="3">
+      <c r="G26" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="3">
+      <c r="H26" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="3">
+      <c r="I26" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1497,10 +1521,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1544,28 +1568,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="3">
+      <c r="A49" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="3">
+      <c r="B49" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="3">
+      <c r="C49" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D49" t="s" s="3">
+      <c r="D49" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="3">
+      <c r="E49" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="3">
+      <c r="F49" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="3">
+      <c r="G49" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="3">
+      <c r="H49" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1590,28 +1614,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="3">
+      <c r="B51" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="3">
+      <c r="C51" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="3">
+      <c r="D51" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="3">
+      <c r="E51" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="3">
+      <c r="F51" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="3">
+      <c r="G51" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="3">
+      <c r="H51" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="3">
+      <c r="I51" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1844,10 +1868,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K59" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1891,28 +1915,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="3">
+      <c r="A61" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="3">
+      <c r="B61" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="3">
+      <c r="C61" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="3">
+      <c r="D61" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="3">
+      <c r="E61" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="3">
+      <c r="F61" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="3">
+      <c r="G61" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="3">
+      <c r="H61" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1937,28 +1961,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="3">
+      <c r="B63" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="3">
+      <c r="C63" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="3">
+      <c r="D63" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="3">
+      <c r="E63" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="3">
+      <c r="F63" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="3">
+      <c r="G63" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="3">
+      <c r="H63" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="3">
+      <c r="I63" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2307,10 +2331,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="J75" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K75" s="3" t="s">
+      <c r="K75" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2354,28 +2378,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="3">
+      <c r="A77" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="3">
+      <c r="B77" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="3">
+      <c r="C77" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D77" t="s" s="3">
+      <c r="D77" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="3">
+      <c r="E77" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="3">
+      <c r="F77" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="3">
+      <c r="G77" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="3">
+      <c r="H77" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2400,28 +2424,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="3">
+      <c r="B79" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="3">
+      <c r="C79" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="3">
+      <c r="D79" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="3">
+      <c r="E79" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="3">
+      <c r="F79" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="3">
+      <c r="G79" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="3">
+      <c r="H79" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="3">
+      <c r="I79" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2596,10 +2620,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J85" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K85" s="3" t="s">
+      <c r="K85" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2643,28 +2667,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="3">
+      <c r="A87" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="3">
+      <c r="C87" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D87" t="s" s="3">
+      <c r="D87" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2689,28 +2713,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="3">
+      <c r="B89" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="3">
+      <c r="C89" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="3">
+      <c r="D89" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="3">
+      <c r="E89" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="3">
+      <c r="F89" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="3">
+      <c r="G89" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="3">
+      <c r="H89" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="3">
+      <c r="I89" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2914,10 +2938,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="3" t="s">
+      <c r="J96" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="3" t="s">
+      <c r="K96" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2961,28 +2985,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="3">
+      <c r="A98" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="3">
+      <c r="B98" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="3">
+      <c r="C98" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="3">
+      <c r="D98" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="3">
+      <c r="E98" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="3">
+      <c r="F98" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="3">
+      <c r="G98" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="3">
+      <c r="H98" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3007,28 +3031,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="3">
+      <c r="B100" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="3">
+      <c r="C100" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="3">
+      <c r="D100" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="3">
+      <c r="E100" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="3">
+      <c r="F100" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="3">
+      <c r="G100" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="3">
+      <c r="H100" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="3">
+      <c r="I100" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3290,10 +3314,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="3" t="s">
+      <c r="J109" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K109" s="3" t="s">
+      <c r="K109" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3337,28 +3361,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="3">
+      <c r="A111" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="3">
+      <c r="B111" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="3">
+      <c r="C111" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D111" t="s" s="3">
+      <c r="D111" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="3">
+      <c r="E111" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="3">
+      <c r="F111" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="3">
+      <c r="G111" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="3">
+      <c r="H111" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3383,28 +3407,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="3">
+      <c r="B113" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="3">
+      <c r="C113" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="3">
+      <c r="D113" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="3">
+      <c r="E113" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="3">
+      <c r="F113" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="3">
+      <c r="G113" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="3">
+      <c r="H113" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="3">
+      <c r="I113" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3666,10 +3690,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="3" t="s">
+      <c r="J122" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K122" s="3" t="s">
+      <c r="K122" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3713,28 +3737,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="3">
+      <c r="A124" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="3">
+      <c r="B124" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="3">
+      <c r="C124" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D124" t="s" s="3">
+      <c r="D124" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="3">
+      <c r="F124" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="3">
+      <c r="G124" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="3">
+      <c r="H124" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3759,28 +3783,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="3">
+      <c r="B126" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="3">
+      <c r="C126" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="3">
+      <c r="D126" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="3">
+      <c r="E126" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="3">
+      <c r="F126" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="3">
+      <c r="G126" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="3">
+      <c r="H126" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="3">
+      <c r="I126" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3955,10 +3979,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="3" t="s">
+      <c r="J132" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K132" s="3" t="s">
+      <c r="K132" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -4002,28 +4026,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="3">
+      <c r="A134" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="3">
+      <c r="B134" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="3">
+      <c r="C134" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D134" t="s" s="3">
+      <c r="D134" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="3">
+      <c r="E134" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="3">
+      <c r="F134" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="3">
+      <c r="G134" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="3">
+      <c r="H134" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4048,28 +4072,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="3">
+      <c r="B136" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="3">
+      <c r="C136" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="3">
+      <c r="D136" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="3">
+      <c r="E136" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="3">
+      <c r="F136" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="3">
+      <c r="G136" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="3">
+      <c r="H136" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="3">
+      <c r="I136" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4215,10 +4239,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="3" t="s">
+      <c r="J141" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K141" s="3" t="s">
+      <c r="K141" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4262,28 +4286,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="3">
+      <c r="A143" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="3">
+      <c r="B143" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="3">
+      <c r="C143" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D143" t="s" s="3">
+      <c r="D143" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="3">
+      <c r="E143" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="3">
+      <c r="F143" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="3">
+      <c r="G143" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="3">
+      <c r="H143" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4308,28 +4332,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="3">
+      <c r="B145" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="3">
+      <c r="C145" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="3">
+      <c r="D145" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="3">
+      <c r="F145" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="3">
+      <c r="G145" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="3">
+      <c r="H145" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="3">
+      <c r="I145" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4446,10 +4470,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="3" t="s">
+      <c r="J149" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K149" s="3" t="s">
+      <c r="K149" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4493,28 +4517,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="3">
+      <c r="A151" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="3">
+      <c r="B151" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="3">
+      <c r="C151" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D151" t="s" s="3">
+      <c r="D151" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="3">
+      <c r="E151" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="3">
+      <c r="F151" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="3">
+      <c r="G151" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="3">
+      <c r="H151" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4539,28 +4563,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="3">
+      <c r="B153" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="3">
+      <c r="C153" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="3">
+      <c r="D153" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="3">
+      <c r="E153" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="3">
+      <c r="F153" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="3">
+      <c r="G153" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="3">
+      <c r="H153" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="3">
+      <c r="I153" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4648,10 +4672,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="3" t="s">
+      <c r="J156" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="3" t="s">
+      <c r="K156" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4695,28 +4719,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="3">
+      <c r="A158" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="3">
+      <c r="B158" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="3">
+      <c r="C158" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="3">
+      <c r="D158" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="3">
+      <c r="E158" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="3">
+      <c r="F158" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="3">
+      <c r="G158" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="3">
+      <c r="H158" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4741,28 +4765,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="3">
+      <c r="B160" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="3">
+      <c r="C160" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="3">
+      <c r="D160" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="3">
+      <c r="E160" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="3">
+      <c r="F160" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="3">
+      <c r="G160" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="3">
+      <c r="H160" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="3">
+      <c r="I160" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4850,10 +4874,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="3" t="s">
+      <c r="J163" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K163" s="3" t="s">
+      <c r="K163" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4897,28 +4921,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="3">
+      <c r="A165" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="3">
+      <c r="B165" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="3">
+      <c r="C165" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D165" t="s" s="3">
+      <c r="D165" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="3">
+      <c r="E165" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="3">
+      <c r="F165" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="3">
+      <c r="G165" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="3">
+      <c r="H165" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4943,28 +4967,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="3">
+      <c r="B167" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="3">
+      <c r="C167" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="3">
+      <c r="D167" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="3">
+      <c r="E167" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="3">
+      <c r="F167" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="3">
+      <c r="G167" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="3">
+      <c r="H167" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="3">
+      <c r="I167" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5081,10 +5105,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="3" t="s">
+      <c r="J171" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="3" t="s">
+      <c r="K171" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
